--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_DASHBOARD.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_DASHBOARD.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="Disclaimer" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,7 +43,7 @@
     <t>As of date: Dec, 2020</t>
   </si>
   <si>
-    <t>Printed on: 2021-01-26 17:54</t>
+    <t>Printed on: 2021-02-10 05:14</t>
   </si>
   <si>
     <t>Previous Cycle: Sep, 2020</t>
@@ -322,7 +322,7 @@
   </si>
   <si>
     <t xml:space="preserve">Earnings-at-Risk (EaR)
- NII: 5,150
+ NII: 5,078
  12 months horizon</t>
   </si>
   <si>
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t xml:space="preserve">Earnings-at-Risk (EaR)
- NII: 9,925
+ NII: 9,798
  24 months horizon</t>
   </si>
   <si>
@@ -412,8 +412,8 @@
   </si>
   <si>
     <t xml:space="preserve">EVE at Risk
- EVE: 23,020
- Duration: 4.34</t>
+ EVE: 22,778
+ Duration: 4.41</t>
   </si>
   <si>
     <t>% Chg in EVE</t>
@@ -820,6 +820,9 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -888,9 +891,6 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -983,7 +983,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
+        <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0EFD5A8-A827-466E-A419-7123851D8E95}"/>
@@ -994,8 +994,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47626" y="18056223"/>
-          <a:ext cx="10287000" cy="8185151"/>
+          <a:off x="38100" y="19450050"/>
+          <a:ext cx="10363200" cy="9058275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1328,21 +1328,27 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>Assets</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>			economic assets value</a:t>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Ubuntu"/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Ubuntu"/>
+            </a:rPr>
+            <a:t>economic assets value</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1353,18 +1359,19 @@
             <a:t>EVE Ratio (%)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:latin typeface="Ubuntu"/>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>		economic value of equity</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1372,9 +1379,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>economic value of equity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Ubuntu"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t> to economic value of assets</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
+          <a:endParaRPr lang="en-US" sz="1050">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -1385,32 +1403,33 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>Duration</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>			% change of EVE to 100bpt interest rate shocks</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:latin typeface="Ubuntu"/>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>NII</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Ubuntu"/>
+            </a:rPr>
+            <a:t>% change of EVE to 100bpt interest rate shocks</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1418,20 +1437,43 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			projected</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
+            <a:t>NII</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:latin typeface="Ubuntu"/>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Ubuntu"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>projected</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Ubuntu"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t> 12 months net interest income</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
+          <a:endParaRPr lang="en-US" sz="1050">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -1442,200 +1484,294 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>Earnings</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>			projected quarterly net income after loss provision and tax</a:t>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Ubuntu"/>
+            </a:rPr>
+            <a:t>projected quarterly net income after loss provision and tax</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>Short Term/Asset (%)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>		cash &amp; cash equivalent / total assets</a:t>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Ubuntu"/>
+            </a:rPr>
+            <a:t>cash &amp; cash equivalent / total assets</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>Yield Curve	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>		treasury</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Ubuntu"/>
+            </a:rPr>
+            <a:t>Yield Curve</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Ubuntu"/>
+            </a:rPr>
+            <a:t>treasury</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" baseline="0">
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t> spot yield curve</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
+          <a:endParaRPr lang="en-US" sz="1050">
             <a:latin typeface="Ubuntu"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>Earning Asset Yield</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>		interest income divided by average earning assets (annualized)</a:t>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Ubuntu"/>
+            </a:rPr>
+            <a:t>interest income divided by average earning assets (annualized)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>Cost of Funds</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>		interest cost divided by average liabilities (annualized)</a:t>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Ubuntu"/>
+            </a:rPr>
+            <a:t>interest cost divided by average liabilities (annualized)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>Margin</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>			Margin = (Interest income-Interest expense) / Average earning assets</a:t>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Ubuntu"/>
+            </a:rPr>
+            <a:t>(Interest income-Interest expense) / Average earning assets</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>Return on Average Assets</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>	NI / total asset (annualized)</a:t>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Ubuntu"/>
+            </a:rPr>
+            <a:t>NI / total asset (annualized)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>Efficiency Ratio</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>		total overhead expense expressed as a percentage of net interest income plus noninterest income</a:t>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Ubuntu"/>
+            </a:rPr>
+            <a:t>total overhead expense expressed as a percentage of net interest income plus noninterest income</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>PD</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>			probability</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Ubuntu"/>
+            </a:rPr>
+            <a:t>probability</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" baseline="0">
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t> of default</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
+          <a:endParaRPr lang="en-US" sz="1050">
             <a:latin typeface="Ubuntu"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>LGD</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>			loss given</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Ubuntu"/>
+            </a:rPr>
+            <a:t>loss given</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" baseline="0">
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t> default</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
+          <a:endParaRPr lang="en-US" sz="1050">
             <a:latin typeface="Ubuntu"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>LTV Duration</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t>		% change in value given a 100%</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t> increase</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Ubuntu"/>
-            </a:rPr>
-            <a:t> in LTV</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1646,39 +1782,97 @@
             <a:t>Credit Score/DSR Duration</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:latin typeface="Ubuntu"/>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>	FICO duration is the % increase in value given a 200 increase</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:latin typeface="Ubuntu"/>
+              <a:effectLst/>
+              <a:latin typeface="Ubuntu" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> in FICO</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="Ubuntu"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:t>For Credit Score duration = % change in value for a 200 shift in FICO (note: the derivation of the duration is based on smaller shift)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Ubuntu"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DSR duration</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Ubuntu"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = (price(dscr +10%) - price(dscr -10%))/ price(dscr)/ 20% *100 .DSR duration is the % value change per 100% dscr change.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Ubuntu"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LTV Duration</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Ubuntu" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>100 * [F(LTV + 10%) – F(LTV -10%) ]/ F(LTV) / 20%; Defined as the % change in the loan value for a change of  LTV=100.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050">
+            <a:latin typeface="Ubuntu" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1686,23 +1880,22 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			DSCR duration is the % change in value given a 100% increase in DSCR</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:t>CECL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:latin typeface="Ubuntu"/>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>CECL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1710,10 +1903,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			value</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
+            <a:t>value</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1723,7 +1916,7 @@
             </a:rPr>
             <a:t> of the unrecovered default during the life time</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
+          <a:endParaRPr lang="en-US" sz="1050">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -1735,7 +1928,7 @@
         <a:p>
           <a:pPr marL="0" indent="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1746,15 +1939,27 @@
             <a:t>CECL (%)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:latin typeface="Ubuntu"/>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			% value of the unrecovered default during the life time</a:t>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Ubuntu"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>% value of the unrecovered default during the life time</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2051,11 +2256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2077,38 +2281,38 @@
   <sheetData>
     <row r="1" ht="55.5" customHeight="1"/>
     <row r="2" ht="31.5" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="22"/>
@@ -2245,10 +2449,10 @@
       <c r="G19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="47"/>
+      <c r="J19" s="48"/>
       <c r="K19" s="13" t="s">
         <v>25</v>
       </c>
@@ -2270,7 +2474,7 @@
         <v>4.78960915337298</v>
       </c>
       <c r="D20" s="65">
-        <v>1.83268272887235</v>
+        <v>1.83988778808912</v>
       </c>
       <c r="E20" s="61">
         <v>125266</v>
@@ -2281,18 +2485,18 @@
       <c r="G20" s="63">
         <v>1.79190318369425</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="41"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="57">
-        <v>16.7231557365715</v>
+        <v>16.5765873014433</v>
       </c>
       <c r="L20" s="15">
         <v>16.7270214542716</v>
       </c>
       <c r="M20" s="15">
-        <v>-0.0038657177001013565</v>
+        <v>-0.15043415282829997</v>
       </c>
     </row>
     <row r="21">
@@ -2317,18 +2521,18 @@
       <c r="G21" s="68">
         <v>0.0583829799421151</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="41"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="58">
-        <v>4.34275366645838</v>
+        <v>4.41286954556231</v>
       </c>
       <c r="L21" s="15">
         <v>3.79544339642409</v>
       </c>
       <c r="M21" s="15">
-        <v>0.54731027003429</v>
+        <v>0.61742614913821958</v>
       </c>
     </row>
     <row r="22">
@@ -2342,7 +2546,7 @@
         <v>1.5139900344779</v>
       </c>
       <c r="D22" s="69">
-        <v>2.77569022303049</v>
+        <v>2.77674487819983</v>
       </c>
       <c r="E22" s="66">
         <v>5578</v>
@@ -2353,18 +2557,18 @@
       <c r="G22" s="68">
         <v>2.58760396483467</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="41"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="57">
-        <v>-28.1336693179859</v>
+        <v>-28.7846989670398</v>
       </c>
       <c r="L22" s="15">
         <v>-26.210077252562204</v>
       </c>
       <c r="M22" s="15">
-        <v>-1.9235920654236942</v>
+        <v>-2.5746217144775976</v>
       </c>
     </row>
     <row r="23">
@@ -2378,7 +2582,7 @@
         <v>5.97752808988503</v>
       </c>
       <c r="D23" s="69">
-        <v>2.13304057121172</v>
+        <v>2.14262398398531</v>
       </c>
       <c r="E23" s="66">
         <v>100044</v>
@@ -2389,18 +2593,18 @@
       <c r="G23" s="68">
         <v>2.05929326491787</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="41"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="57">
-        <v>-11.8111162752614</v>
+        <v>-12.0621484794021</v>
       </c>
       <c r="L23" s="15">
         <v>-11.457873023906</v>
       </c>
       <c r="M23" s="15">
-        <v>-0.35324325135539958</v>
+        <v>-0.60427545549610073</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2618,7 @@
         <v>5.78382032598604</v>
       </c>
       <c r="D24" s="69">
-        <v>2.0893493865682</v>
+        <v>2.1013671836292</v>
       </c>
       <c r="E24" s="66">
         <v>78978.0000000001</v>
@@ -2425,18 +2629,18 @@
       <c r="G24" s="68">
         <v>2.00815127538795</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="41"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="59">
-        <v>896.356678026844</v>
+        <v>893.40563536215</v>
       </c>
       <c r="L24" s="28">
         <v>882.643167352875</v>
       </c>
       <c r="M24" s="28">
-        <v>13.713510673968926</v>
+        <v>10.762468009274926</v>
       </c>
     </row>
     <row r="25">
@@ -2447,10 +2651,10 @@
         <v>20247</v>
       </c>
       <c r="C25" s="69">
-        <v>6.73865035097343</v>
+        <v>6.7386682783808896</v>
       </c>
       <c r="D25" s="69">
-        <v>2.30315021869885</v>
+        <v>2.3032633065313</v>
       </c>
       <c r="E25" s="66">
         <v>21066</v>
@@ -2461,18 +2665,18 @@
       <c r="G25" s="68">
         <v>2.25031943755968</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="41"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="57">
-        <v>4.09912760103784</v>
+        <v>4.04187212046312</v>
       </c>
       <c r="L25" s="15">
         <v>4.1300175175713205</v>
       </c>
       <c r="M25" s="15">
-        <v>-0.030889916533480388</v>
+        <v>-0.088145397108200463</v>
       </c>
     </row>
     <row r="26" ht="16.5">
@@ -2497,18 +2701,18 @@
       <c r="G26" s="63">
         <v>1.38945258437494</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="59">
-        <v>5150.17462701058</v>
+      <c r="J26" s="42"/>
+      <c r="K26" s="60">
+        <v>5077.51843313498</v>
       </c>
       <c r="L26" s="28">
         <v>5127.80457020695</v>
       </c>
       <c r="M26" s="28">
-        <v>22.370056803629268</v>
+        <v>-50.286137071970188</v>
       </c>
     </row>
     <row r="27">
@@ -2533,18 +2737,18 @@
       <c r="G27" s="68">
         <v>1.39607012728829</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="41"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="60">
-        <v>1119.04347232535</v>
+        <v>1061.5908880798</v>
       </c>
       <c r="L27" s="28">
         <v>1135.30686804828</v>
       </c>
       <c r="M27" s="28">
-        <v>-16.26339572293</v>
+        <v>-73.715979968480042</v>
       </c>
     </row>
     <row r="28">
@@ -2569,18 +2773,18 @@
       <c r="G28" s="68">
         <v>1.73550736615674</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="41"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="57">
-        <v>4.86119555539417</v>
+        <v>4.66058161642341</v>
       </c>
       <c r="L28" s="15">
         <v>4.98900565810162</v>
       </c>
       <c r="M28" s="15">
-        <v>-0.12781010270744986</v>
+        <v>-0.32842404167821027</v>
       </c>
     </row>
     <row r="29">
@@ -2630,7 +2834,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="29" t="s">
@@ -2662,10 +2866,10 @@
       <c r="G32" s="32"/>
     </row>
     <row r="34" ht="16.5">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="52"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="17" t="s">
         <v>51</v>
       </c>
@@ -2675,32 +2879,32 @@
       <c r="E34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="53"/>
-      <c r="I34" s="46" t="s">
+      <c r="G34" s="54"/>
+      <c r="I34" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J34" s="47"/>
-      <c r="K34" s="46" t="s">
+      <c r="J34" s="48"/>
+      <c r="K34" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="L34" s="46" t="s">
+      <c r="L34" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="M34" s="46" t="s">
+      <c r="M34" s="47" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="18">
         <v>400</v>
       </c>
       <c r="D35" s="19">
-        <v>-0.118111162752614</v>
+        <v>-0.120621484794021</v>
       </c>
       <c r="E35" s="19">
         <v>-0.2</v>
@@ -2708,21 +2912,21 @@
       <c r="F35" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="45"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
+      <c r="G35" s="46"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
     </row>
     <row r="36">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="18">
         <v>300</v>
       </c>
       <c r="D36" s="19">
-        <v>-0.0837655836687736</v>
+        <v>-0.0855574159924635</v>
       </c>
       <c r="E36" s="19">
         <v>-0.15</v>
@@ -2730,21 +2934,21 @@
       <c r="F36" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="45"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
+      <c r="G36" s="46"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
     </row>
     <row r="37" ht="16.5">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="18">
         <v>200</v>
       </c>
       <c r="D37" s="19">
-        <v>-0.055578624823686</v>
+        <v>-0.0565135551551055</v>
       </c>
       <c r="E37" s="19">
         <v>-0.1</v>
@@ -2752,11 +2956,11 @@
       <c r="F37" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="I37" s="48" t="s">
+      <c r="G37" s="46"/>
+      <c r="I37" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="48"/>
+      <c r="J37" s="49"/>
       <c r="K37" s="24">
         <v>1556</v>
       </c>
@@ -2768,13 +2972,13 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="18">
         <v>100</v>
       </c>
       <c r="D38" s="19">
-        <v>-0.0283826440313688</v>
+        <v>-0.028798110098826</v>
       </c>
       <c r="E38" s="19">
         <v>-0.07</v>
@@ -2782,11 +2986,11 @@
       <c r="F38" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="45"/>
-      <c r="I38" s="40" t="s">
+      <c r="G38" s="46"/>
+      <c r="I38" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="J38" s="40"/>
+      <c r="J38" s="41"/>
       <c r="K38" s="16">
         <v>1540</v>
       </c>
@@ -2798,8 +3002,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="18" t="s">
         <v>62</v>
       </c>
@@ -2807,12 +3011,12 @@
         <v>63</v>
       </c>
       <c r="E39" s="19"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="I39" s="40" t="s">
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="I39" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="J39" s="40"/>
+      <c r="J39" s="41"/>
       <c r="K39" s="16">
         <v>13</v>
       </c>
@@ -2824,13 +3028,13 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="18">
         <v>-100</v>
       </c>
       <c r="D40" s="19">
-        <v>-0.00891086137035614</v>
+        <v>-0.00907000794882184</v>
       </c>
       <c r="E40" s="19">
         <v>-0.07</v>
@@ -2838,11 +3042,11 @@
       <c r="F40" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="I40" s="40" t="s">
+      <c r="G40" s="46"/>
+      <c r="I40" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="J40" s="40"/>
+      <c r="J40" s="41"/>
       <c r="K40" s="16">
         <v>3</v>
       </c>
@@ -2854,21 +3058,21 @@
       </c>
     </row>
     <row r="41" ht="16.5">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="18">
         <v>-200</v>
       </c>
       <c r="D41" s="19">
-        <v>-0.00891707591110255</v>
+        <v>-0.00907632417808997</v>
       </c>
       <c r="E41" s="19"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="I41" s="48" t="s">
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="I41" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="J41" s="48"/>
+      <c r="J41" s="49"/>
       <c r="K41" s="24">
         <v>212</v>
       </c>
@@ -2880,19 +3084,19 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="18">
         <v>-300</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="I42" s="40" t="s">
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="I42" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="40"/>
+      <c r="J42" s="41"/>
       <c r="K42" s="16">
         <v>212</v>
       </c>
@@ -2904,13 +3108,13 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="19">
-        <v>-0.118998283537698</v>
+        <v>-0.120913018663639</v>
       </c>
       <c r="E43" s="19">
         <v>-0.15</v>
@@ -2918,11 +3122,11 @@
       <c r="F43" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="I43" s="40" t="s">
+      <c r="G43" s="46"/>
+      <c r="I43" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="J43" s="40"/>
+      <c r="J43" s="41"/>
       <c r="K43" s="16">
         <v>0</v>
       </c>
@@ -2932,10 +3136,10 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" ht="16.5">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="52"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="17" t="s">
         <v>51</v>
       </c>
@@ -2945,14 +3149,14 @@
       <c r="E44" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="53" t="s">
+      <c r="F44" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="53"/>
-      <c r="I44" s="40" t="s">
+      <c r="G44" s="54"/>
+      <c r="I44" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="J44" s="40"/>
+      <c r="J44" s="41"/>
       <c r="K44" s="16">
         <v>0</v>
       </c>
@@ -2962,13 +3166,13 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" ht="16.5">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="18">
         <v>400</v>
       </c>
       <c r="D45" s="19">
-        <v>-0.0829363238573252</v>
+        <v>-0.0856212166499126</v>
       </c>
       <c r="E45" s="19">
         <v>-0.2</v>
@@ -2976,11 +3180,11 @@
       <c r="F45" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="45"/>
-      <c r="I45" s="48" t="s">
+      <c r="G45" s="46"/>
+      <c r="I45" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="J45" s="48"/>
+      <c r="J45" s="49"/>
       <c r="K45" s="24">
         <v>1344</v>
       </c>
@@ -2992,13 +3196,13 @@
       </c>
     </row>
     <row r="46" ht="16.5">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="18">
         <v>300</v>
       </c>
       <c r="D46" s="19">
-        <v>-0.0518744085848684</v>
+        <v>-0.0536373269472537</v>
       </c>
       <c r="E46" s="19">
         <v>-0.15</v>
@@ -3006,11 +3210,11 @@
       <c r="F46" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G46" s="45"/>
-      <c r="I46" s="48" t="s">
+      <c r="G46" s="46"/>
+      <c r="I46" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="J46" s="48"/>
+      <c r="J46" s="49"/>
       <c r="K46" s="24">
         <v>894</v>
       </c>
@@ -3022,13 +3226,13 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="18">
         <v>200</v>
       </c>
       <c r="D47" s="19">
-        <v>-0.0352037288094819</v>
+        <v>-0.0358796199243656</v>
       </c>
       <c r="E47" s="19">
         <v>-0.1</v>
@@ -3036,11 +3240,11 @@
       <c r="F47" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="I47" s="40" t="s">
+      <c r="G47" s="46"/>
+      <c r="I47" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="J47" s="40"/>
+      <c r="J47" s="41"/>
       <c r="K47" s="16">
         <v>206</v>
       </c>
@@ -3052,13 +3256,13 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="18">
         <v>100</v>
       </c>
       <c r="D48" s="19">
-        <v>-0.0161578646514235</v>
+        <v>-0.0165121475370589</v>
       </c>
       <c r="E48" s="19">
         <v>-0.07</v>
@@ -3066,11 +3270,11 @@
       <c r="F48" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="45"/>
-      <c r="I48" s="40" t="s">
+      <c r="G48" s="46"/>
+      <c r="I48" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="J48" s="40"/>
+      <c r="J48" s="41"/>
       <c r="K48" s="16">
         <v>1100</v>
       </c>
@@ -3082,8 +3286,8 @@
       </c>
     </row>
     <row r="49" ht="16.5">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="18" t="s">
         <v>62</v>
       </c>
@@ -3091,12 +3295,12 @@
         <v>63</v>
       </c>
       <c r="E49" s="19"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="I49" s="48" t="s">
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="I49" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="J49" s="48"/>
+      <c r="J49" s="49"/>
       <c r="K49" s="24">
         <v>60</v>
       </c>
@@ -3108,13 +3312,13 @@
       </c>
     </row>
     <row r="50" ht="16.5">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="18">
         <v>-100</v>
       </c>
       <c r="D50" s="19">
-        <v>-0.0322119567695828</v>
+        <v>-0.0326278245358121</v>
       </c>
       <c r="E50" s="19">
         <v>-0.07</v>
@@ -3122,11 +3326,11 @@
       <c r="F50" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G50" s="45"/>
-      <c r="I50" s="48" t="s">
+      <c r="G50" s="46"/>
+      <c r="I50" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="J50" s="48"/>
+      <c r="J50" s="49"/>
       <c r="K50" s="24">
         <v>91</v>
       </c>
@@ -3138,21 +3342,21 @@
       </c>
     </row>
     <row r="51" ht="16.5">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="18">
         <v>-200</v>
       </c>
       <c r="D51" s="19">
-        <v>-0.032670048395318</v>
+        <v>-0.0330922795369719</v>
       </c>
       <c r="E51" s="19"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="I51" s="48" t="s">
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="I51" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="J51" s="48"/>
+      <c r="J51" s="49"/>
       <c r="K51" s="24">
         <v>299</v>
       </c>
@@ -3164,29 +3368,29 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
       <c r="C52" s="18">
         <v>-300</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
     </row>
     <row r="53">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="19">
-        <v>-0.117234979524388</v>
+        <v>-0.119289964284329</v>
       </c>
       <c r="E53" s="19">
         <v>-0.15</v>
@@ -3194,13 +3398,13 @@
       <c r="F53" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="45"/>
+      <c r="G53" s="46"/>
     </row>
     <row r="54" ht="16.5">
-      <c r="A54" s="51" t="s">
+      <c r="A54" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="52"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="17" t="s">
         <v>51</v>
       </c>
@@ -3210,32 +3414,32 @@
       <c r="E54" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F54" s="53" t="s">
+      <c r="F54" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="53"/>
-      <c r="I54" s="46" t="s">
+      <c r="G54" s="54"/>
+      <c r="I54" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="J54" s="47"/>
-      <c r="K54" s="46" t="s">
+      <c r="J54" s="48"/>
+      <c r="K54" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="L54" s="46" t="s">
+      <c r="L54" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="M54" s="46" t="s">
+      <c r="M54" s="47" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="18">
         <v>400</v>
       </c>
       <c r="D55" s="19">
-        <v>-0.281336693179859</v>
+        <v>-0.287846989670398</v>
       </c>
       <c r="E55" s="19">
         <v>-0.35</v>
@@ -3243,21 +3447,21 @@
       <c r="F55" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G55" s="45"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
+      <c r="G55" s="46"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
     </row>
     <row r="56">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="18">
         <v>300</v>
       </c>
       <c r="D56" s="19">
-        <v>-0.173328127460699</v>
+        <v>-0.177195598117769</v>
       </c>
       <c r="E56" s="19">
         <v>-0.25</v>
@@ -3265,21 +3469,21 @@
       <c r="F56" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G56" s="45"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
+      <c r="G56" s="46"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
     </row>
     <row r="57">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="18">
         <v>200</v>
       </c>
       <c r="D57" s="19">
-        <v>-0.117122144893445</v>
+        <v>-0.118357510142226</v>
       </c>
       <c r="E57" s="19">
         <v>-0.15</v>
@@ -3287,11 +3491,11 @@
       <c r="F57" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="45"/>
-      <c r="I57" s="41" t="s">
+      <c r="G57" s="46"/>
+      <c r="I57" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="J57" s="41"/>
+      <c r="J57" s="42"/>
       <c r="K57" s="15">
         <v>0</v>
       </c>
@@ -3303,13 +3507,13 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="18">
         <v>100</v>
       </c>
       <c r="D58" s="19">
-        <v>-0.0528210675725254</v>
+        <v>-0.053479315583676</v>
       </c>
       <c r="E58" s="19">
         <v>-0.1</v>
@@ -3317,11 +3521,11 @@
       <c r="F58" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="I58" s="41" t="s">
+      <c r="G58" s="46"/>
+      <c r="I58" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="J58" s="41"/>
+      <c r="J58" s="42"/>
       <c r="K58" s="15">
         <v>68.4456841629012</v>
       </c>
@@ -3333,8 +3537,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="18" t="s">
         <v>62</v>
       </c>
@@ -3342,12 +3546,12 @@
         <v>63</v>
       </c>
       <c r="E59" s="19"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="I59" s="41" t="s">
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="I59" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="J59" s="41"/>
+      <c r="J59" s="42"/>
       <c r="K59" s="15">
         <v>48.7670810572777</v>
       </c>
@@ -3359,13 +3563,13 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="18">
         <v>-100</v>
       </c>
       <c r="D60" s="19">
-        <v>-0.00617161867569995</v>
+        <v>-0.00591112655289965</v>
       </c>
       <c r="E60" s="19">
         <v>-0.1</v>
@@ -3373,11 +3577,11 @@
       <c r="F60" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G60" s="45"/>
-      <c r="I60" s="41" t="s">
+      <c r="G60" s="46"/>
+      <c r="I60" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="J60" s="41"/>
+      <c r="J60" s="42"/>
       <c r="K60" s="15">
         <v>58.491907721736304</v>
       </c>
@@ -3389,37 +3593,37 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="18">
         <v>-200</v>
       </c>
       <c r="D61" s="19">
-        <v>-0.00774794491510948</v>
+        <v>-0.00750446000073667</v>
       </c>
       <c r="E61" s="19"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
     </row>
     <row r="62">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
       <c r="C62" s="18">
         <v>-300</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
     </row>
     <row r="63">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
       <c r="C63" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D63" s="19">
-        <v>-0.124599357494197</v>
+        <v>-0.125868739284039</v>
       </c>
       <c r="E63" s="19">
         <v>-0.25</v>
@@ -3427,24 +3631,24 @@
       <c r="F63" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G63" s="45"/>
+      <c r="G63" s="46"/>
     </row>
     <row r="65" ht="28.5" customHeight="1">
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
       <c r="E65" s="20" t="s">
         <v>89</v>
       </c>
       <c r="F65" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G65" s="44" t="s">
+      <c r="G65" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="H65" s="44"/>
+      <c r="H65" s="45"/>
       <c r="I65" s="20" t="s">
         <v>92</v>
       </c>
@@ -3456,99 +3660,99 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
       <c r="E66" s="16">
         <v>19784</v>
       </c>
       <c r="F66" s="16">
-        <v>19886.1815213283</v>
-      </c>
-      <c r="G66" s="38">
-        <v>19951.9578775709</v>
-      </c>
-      <c r="H66" s="38"/>
+        <v>19872.9685297693</v>
+      </c>
+      <c r="G66" s="39">
+        <v>19964.6858192832</v>
+      </c>
+      <c r="H66" s="39"/>
       <c r="I66" s="16">
-        <v>20060.1911509193</v>
+        <v>20060.2118118917</v>
       </c>
       <c r="J66" s="16">
-        <v>20151.2703118916</v>
+        <v>20151.2910521051</v>
       </c>
       <c r="K66" s="16">
-        <v>20251.8797343247</v>
+        <v>20239.6719759813</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
       <c r="E67" s="16">
-        <v>9.9468121573604</v>
+        <v>10.0528591567438</v>
       </c>
       <c r="F67" s="16">
-        <v>9.86828773567937</v>
-      </c>
-      <c r="G67" s="38">
-        <v>2132.69712105453</v>
-      </c>
-      <c r="H67" s="38"/>
+        <v>9.6572653301156</v>
+      </c>
+      <c r="G67" s="39">
+        <v>2132.80205721988</v>
+      </c>
+      <c r="H67" s="39"/>
       <c r="I67" s="16">
-        <v>11.0126762652801</v>
+        <v>11.012676409953</v>
       </c>
       <c r="J67" s="16">
-        <v>11.4538755004186</v>
+        <v>11.5561045708808</v>
       </c>
       <c r="K67" s="16">
-        <v>11.2600322762474</v>
+        <v>11.2593380859537</v>
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="16">
-        <v>1706.11937876305</v>
+        <v>1720.081882973</v>
       </c>
       <c r="F68" s="16">
-        <v>1917.47703809682</v>
-      </c>
-      <c r="G68" s="38">
-        <v>1940.0781176446</v>
-      </c>
-      <c r="H68" s="38"/>
+        <v>1889.8984633874</v>
+      </c>
+      <c r="G68" s="39">
+        <v>1953.69091077778</v>
+      </c>
+      <c r="H68" s="39"/>
       <c r="I68" s="16">
-        <v>1993.24593559343</v>
+        <v>1993.24604171006</v>
       </c>
       <c r="J68" s="16">
-        <v>1908.30359096119</v>
+        <v>1921.02283327363</v>
       </c>
       <c r="K68" s="16">
-        <v>1855.60696872403</v>
+        <v>1855.37644612235</v>
       </c>
     </row>
     <row r="69">
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
       <c r="E69" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H69" s="38"/>
+      <c r="H69" s="39"/>
       <c r="I69" s="16" t="s">
         <v>48</v>
       </c>
@@ -3560,21 +3764,21 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
       <c r="E70" s="16">
         <v>4431.89101318438</v>
       </c>
       <c r="F70" s="16">
         <v>4426.1625529809</v>
       </c>
-      <c r="G70" s="38">
+      <c r="G70" s="39">
         <v>4423.24030574183</v>
       </c>
-      <c r="H70" s="38"/>
+      <c r="H70" s="39"/>
       <c r="I70" s="16">
         <v>6648.15271798045</v>
       </c>
@@ -3586,47 +3790,47 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
       <c r="E71" s="16">
-        <v>102.181521328345</v>
+        <v>88.9685297694476</v>
       </c>
       <c r="F71" s="16">
-        <v>65.7763562425501</v>
-      </c>
-      <c r="G71" s="38">
-        <v>108.233273346624</v>
-      </c>
-      <c r="H71" s="38"/>
+        <v>91.7172895137747</v>
+      </c>
+      <c r="G71" s="39">
+        <v>95.5259926066936</v>
+      </c>
+      <c r="H71" s="39"/>
       <c r="I71" s="16">
-        <v>91.0791609777503</v>
+        <v>91.0792402188784</v>
       </c>
       <c r="J71" s="16">
-        <v>100.609422430562</v>
+        <v>88.3809238736223</v>
       </c>
       <c r="K71" s="16">
-        <v>90.3749033110727</v>
+        <v>90.350593421548</v>
       </c>
     </row>
     <row r="72">
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
       <c r="E72" s="16">
         <v>0</v>
       </c>
       <c r="F72" s="16">
         <v>0</v>
       </c>
-      <c r="G72" s="38">
+      <c r="G72" s="39">
         <v>0</v>
       </c>
-      <c r="H72" s="38"/>
+      <c r="H72" s="39"/>
       <c r="I72" s="16">
         <v>0</v>
       </c>
@@ -3638,99 +3842,99 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
       <c r="E73" s="16">
-        <v>26034.1387254331</v>
+        <v>26034.9942850835</v>
       </c>
       <c r="F73" s="16">
-        <v>26305.4657563842</v>
-      </c>
-      <c r="G73" s="38">
-        <v>28556.2066953585</v>
-      </c>
-      <c r="H73" s="38"/>
+        <v>26290.4041009815</v>
+      </c>
+      <c r="G73" s="39">
+        <v>28569.9450856294</v>
+      </c>
+      <c r="H73" s="39"/>
       <c r="I73" s="16">
-        <v>28803.6816417362</v>
+        <v>28803.702488211</v>
       </c>
       <c r="J73" s="16">
-        <v>28822.4112009266</v>
+        <v>28823.0249139661</v>
       </c>
       <c r="K73" s="16">
-        <v>28863.9854918893</v>
+        <v>28851.5222068644</v>
       </c>
     </row>
     <row r="74">
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
       <c r="E74" s="16">
-        <v>9.97948001850201</v>
+        <v>10.085527017885</v>
       </c>
       <c r="F74" s="16">
-        <v>9.90846588421779</v>
-      </c>
-      <c r="G74" s="38">
-        <v>2132.74580587305</v>
-      </c>
-      <c r="H74" s="38"/>
+        <v>9.69743872728027</v>
+      </c>
+      <c r="G74" s="39">
+        <v>2132.8507475168</v>
+      </c>
+      <c r="H74" s="39"/>
       <c r="I74" s="16">
-        <v>11.0718677634054</v>
+        <v>11.0718679092911</v>
       </c>
       <c r="J74" s="16">
-        <v>11.5252718078773</v>
+        <v>11.6275008796461</v>
       </c>
       <c r="K74" s="16">
-        <v>11.3561687796543</v>
+        <v>11.3554663084058</v>
       </c>
     </row>
     <row r="75">
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
       <c r="E75" s="16">
-        <v>1724.00753949134</v>
+        <v>1737.97004370131</v>
       </c>
       <c r="F75" s="16">
-        <v>1935.99415897797</v>
-      </c>
-      <c r="G75" s="38">
-        <v>1959.37691883868</v>
-      </c>
-      <c r="H75" s="38"/>
+        <v>1908.41711843232</v>
+      </c>
+      <c r="G75" s="39">
+        <v>1972.9882003199</v>
+      </c>
+      <c r="H75" s="39"/>
       <c r="I75" s="16">
-        <v>2013.54544860155</v>
+        <v>2013.54555374999</v>
       </c>
       <c r="J75" s="16">
-        <v>1930.09309093634</v>
+        <v>1942.81233226649</v>
       </c>
       <c r="K75" s="16">
-        <v>1879.70172795385</v>
+        <v>1879.47307776271</v>
       </c>
     </row>
     <row r="76">
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
       <c r="E76" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F76" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G76" s="38" t="s">
+      <c r="G76" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H76" s="38"/>
+      <c r="H76" s="39"/>
       <c r="I76" s="16" t="s">
         <v>48</v>
       </c>
@@ -3742,21 +3946,21 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
       <c r="E77" s="16">
         <v>4431.89101318448</v>
       </c>
       <c r="F77" s="16">
         <v>4426.16255298087</v>
       </c>
-      <c r="G77" s="38">
+      <c r="G77" s="39">
         <v>4423.24030574182</v>
       </c>
-      <c r="H77" s="38"/>
+      <c r="H77" s="39"/>
       <c r="I77" s="16">
         <v>6648.15271798258</v>
       </c>
@@ -3768,47 +3972,47 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
       <c r="E78" s="16">
         <v>-17.920828589425</v>
       </c>
       <c r="F78" s="16">
-        <v>-18.5572990297795</v>
-      </c>
-      <c r="G78" s="38">
-        <v>-19.3474860143783</v>
-      </c>
-      <c r="H78" s="38"/>
+        <v>-18.5588284421448</v>
+      </c>
+      <c r="G78" s="39">
+        <v>-19.3459798408817</v>
+      </c>
+      <c r="H78" s="39"/>
       <c r="I78" s="16">
-        <v>-20.3587045028222</v>
+        <v>-20.3587035358874</v>
       </c>
       <c r="J78" s="16">
-        <v>-21.8608962852528</v>
+        <v>-21.8608953042227</v>
       </c>
       <c r="K78" s="16">
-        <v>-24.1908957332938</v>
+        <v>-24.1927598628901</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
       <c r="E79" s="16">
         <v>0</v>
       </c>
       <c r="F79" s="16">
         <v>0</v>
       </c>
-      <c r="G79" s="38">
+      <c r="G79" s="39">
         <v>0</v>
       </c>
-      <c r="H79" s="38"/>
+      <c r="H79" s="39"/>
       <c r="I79" s="16">
         <v>0</v>
       </c>
@@ -3820,62 +4024,62 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="16">
-        <v>6147.95720410486</v>
+        <v>6162.02575531425</v>
       </c>
       <c r="F80" s="16">
-        <v>6353.50787881327</v>
-      </c>
-      <c r="G80" s="38">
-        <v>8496.01554443917</v>
-      </c>
-      <c r="H80" s="38"/>
+        <v>6325.71828169834</v>
+      </c>
+      <c r="G80" s="39">
+        <v>8509.73327373764</v>
+      </c>
+      <c r="H80" s="39"/>
       <c r="I80" s="16">
-        <v>8652.41132984471</v>
+        <v>8652.41143610597</v>
       </c>
       <c r="J80" s="16">
-        <v>8570.53146660186</v>
+        <v>8583.3529379848</v>
       </c>
       <c r="K80" s="16">
-        <v>8521.73085425332</v>
+        <v>8521.49963746134</v>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
       <c r="E81" s="30">
-        <v>4.23459986156877</v>
+        <v>4.22507066975993</v>
       </c>
       <c r="F81" s="30">
-        <v>4.1403058370485</v>
-      </c>
-      <c r="G81" s="39">
-        <v>3.36112929007635</v>
-      </c>
-      <c r="H81" s="39"/>
+        <v>4.15611365068933</v>
+      </c>
+      <c r="G81" s="40">
+        <v>3.3573255666897</v>
+      </c>
+      <c r="H81" s="40"/>
       <c r="I81" s="30">
-        <v>3.32897738488043</v>
+        <v>3.32897975332229</v>
       </c>
       <c r="J81" s="30">
-        <v>3.36296661569279</v>
+        <v>3.3580146502438</v>
       </c>
       <c r="K81" s="30">
-        <v>3.38710362783669</v>
+        <v>3.38573296184046</v>
       </c>
     </row>
     <row r="83" ht="28.5" customHeight="1">
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C83" s="43"/>
+      <c r="C83" s="44"/>
       <c r="D83" s="6" t="s">
         <v>18</v>
       </c>
@@ -3885,10 +4089,10 @@
       <c r="F83" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G83" s="43" t="s">
+      <c r="G83" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="H83" s="43"/>
+      <c r="H83" s="44"/>
       <c r="I83" s="6" t="s">
         <v>115</v>
       </c>
@@ -3903,7 +4107,7 @@
       <c r="B84" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="50"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="11">
         <v>100125</v>
       </c>
@@ -3911,27 +4115,27 @@
         <v>5.97752808988503</v>
       </c>
       <c r="F84" s="12">
-        <v>0.88193179950051737</v>
-      </c>
-      <c r="G84" s="36">
-        <v>1.3231476439977</v>
-      </c>
-      <c r="H84" s="36"/>
+        <v>0.87908467568293536</v>
+      </c>
+      <c r="G84" s="37">
+        <v>1.32236415396834</v>
+      </c>
+      <c r="H84" s="37"/>
       <c r="I84" s="12">
-        <v>29.646135643555727</v>
+        <v>29.622194761515551</v>
       </c>
       <c r="J84" s="12">
-        <v>0.423307656223527</v>
+        <v>0.31357279347037</v>
       </c>
       <c r="K84" s="12">
-        <v>0.583147417892026</v>
+        <v>0.595311062620054</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="C85" s="50"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="11">
         <v>8673</v>
       </c>
@@ -3939,27 +4143,27 @@
         <v>7.1025020178</v>
       </c>
       <c r="F85" s="12">
-        <v>1.897463888164084</v>
-      </c>
-      <c r="G85" s="36">
+        <v>1.895451644438003</v>
+      </c>
+      <c r="G85" s="37">
         <v>2.12303670010377</v>
       </c>
-      <c r="H85" s="36"/>
+      <c r="H85" s="37"/>
       <c r="I85" s="12">
-        <v>52.703672729085149</v>
+        <v>52.703667673118851</v>
       </c>
       <c r="J85" s="12">
-        <v>-0.441753856278706</v>
+        <v>-0.439599937817104</v>
       </c>
       <c r="K85" s="12">
-        <v>6.6331596542711</v>
+        <v>6.62697760480766</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="C86" s="50"/>
+      <c r="C86" s="51"/>
       <c r="D86" s="11">
         <v>79878</v>
       </c>
@@ -3967,28 +4171,28 @@
         <v>5.78382032598604</v>
       </c>
       <c r="F86" s="12">
-        <v>0.76637321429247862</v>
-      </c>
-      <c r="G86" s="36">
-        <v>1.21068995617792</v>
-      </c>
-      <c r="H86" s="36"/>
+        <v>0.76303127695773554</v>
+      </c>
+      <c r="G86" s="37">
+        <v>1.20970787175931</v>
+      </c>
+      <c r="H86" s="37"/>
       <c r="I86" s="12">
-        <v>27.331849254184881</v>
+        <v>27.297167453102979</v>
       </c>
       <c r="J86" s="12">
-        <v>0.985709421788132</v>
+        <v>0.848547909656305</v>
       </c>
       <c r="K86" s="12">
-        <v>-0.107475529674954</v>
+        <v>-0.0916486357531151</v>
       </c>
     </row>
     <row r="87">
       <c r="D87" s="5"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -4127,6 +4331,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:W40"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -4141,925 +4346,925 @@
   <sheetData>
     <row r="2" ht="39.75" customHeight="1">
       <c r="E2" s="8"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
     </row>
     <row r="4">
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
     </row>
     <row r="5">
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
     </row>
     <row r="6">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
     </row>
     <row r="7">
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
     </row>
     <row r="8">
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
     </row>
     <row r="9">
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
     </row>
     <row r="10">
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
     </row>
     <row r="11">
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
     </row>
     <row r="12">
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
     </row>
     <row r="13">
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
     </row>
     <row r="14">
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
     </row>
     <row r="15">
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
     </row>
     <row r="16">
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
     </row>
     <row r="17">
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
     </row>
     <row r="18">
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
     </row>
     <row r="19">
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
     </row>
     <row r="20">
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
     </row>
     <row r="21">
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
     </row>
     <row r="22">
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
     </row>
     <row r="23">
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
     </row>
     <row r="24">
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
     </row>
     <row r="25">
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
     </row>
     <row r="26">
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
     </row>
     <row r="27">
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
     </row>
     <row r="28">
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
     </row>
     <row r="29">
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
     </row>
     <row r="30">
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
     </row>
     <row r="31">
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
     </row>
     <row r="32">
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
     </row>
     <row r="33">
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
     </row>
     <row r="34">
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
     </row>
     <row r="35">
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
     </row>
     <row r="36">
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
     </row>
     <row r="37">
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
     </row>
     <row r="38">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
     </row>
     <row r="39">
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="55"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="55"/>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
     </row>
     <row r="40">
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_DASHBOARD.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_DASHBOARD.xlsx
@@ -43,7 +43,7 @@
     <t>As of date: Dec, 2020</t>
   </si>
   <si>
-    <t>Printed on: 2021-02-10 05:14</t>
+    <t>Printed on: 2021-03-14 05:12</t>
   </si>
   <si>
     <t>Previous Cycle: Sep, 2020</t>
@@ -412,7 +412,7 @@
   </si>
   <si>
     <t xml:space="preserve">EVE at Risk
- EVE: 22,778
+ EVE: 22,815
  Duration: 4.41</t>
   </si>
   <si>
@@ -2474,7 +2474,7 @@
         <v>4.78960915337298</v>
       </c>
       <c r="D20" s="65">
-        <v>1.83988778808912</v>
+        <v>1.83965391735106</v>
       </c>
       <c r="E20" s="61">
         <v>125266</v>
@@ -2490,13 +2490,13 @@
       </c>
       <c r="J20" s="42"/>
       <c r="K20" s="57">
-        <v>16.5765873014433</v>
+        <v>16.5989220824786</v>
       </c>
       <c r="L20" s="15">
         <v>16.7270214542716</v>
       </c>
       <c r="M20" s="15">
-        <v>-0.15043415282829997</v>
+        <v>-0.1280993717929988</v>
       </c>
     </row>
     <row r="21">
@@ -2526,13 +2526,13 @@
       </c>
       <c r="J21" s="42"/>
       <c r="K21" s="58">
-        <v>4.41286954556231</v>
+        <v>4.40731057059092</v>
       </c>
       <c r="L21" s="15">
         <v>3.79544339642409</v>
       </c>
       <c r="M21" s="15">
-        <v>0.61742614913821958</v>
+        <v>0.61186717416683</v>
       </c>
     </row>
     <row r="22">
@@ -2546,7 +2546,7 @@
         <v>1.5139900344779</v>
       </c>
       <c r="D22" s="69">
-        <v>2.77674487819983</v>
+        <v>2.77485156694838</v>
       </c>
       <c r="E22" s="66">
         <v>5578</v>
@@ -2562,13 +2562,13 @@
       </c>
       <c r="J22" s="42"/>
       <c r="K22" s="57">
-        <v>-28.7846989670398</v>
+        <v>-28.7580379638994</v>
       </c>
       <c r="L22" s="15">
         <v>-26.210077252562204</v>
       </c>
       <c r="M22" s="15">
-        <v>-2.5746217144775976</v>
+        <v>-2.5479607113371969</v>
       </c>
     </row>
     <row r="23">
@@ -2582,7 +2582,7 @@
         <v>5.97752808988503</v>
       </c>
       <c r="D23" s="69">
-        <v>2.14262398398531</v>
+        <v>2.14215630896882</v>
       </c>
       <c r="E23" s="66">
         <v>100044</v>
@@ -2598,13 +2598,13 @@
       </c>
       <c r="J23" s="42"/>
       <c r="K23" s="57">
-        <v>-12.0621484794021</v>
+        <v>-12.0621783476998</v>
       </c>
       <c r="L23" s="15">
         <v>-11.457873023906</v>
       </c>
       <c r="M23" s="15">
-        <v>-0.60427545549610073</v>
+        <v>-0.60430532379380075</v>
       </c>
     </row>
     <row r="24">
@@ -2618,7 +2618,7 @@
         <v>5.78382032598604</v>
       </c>
       <c r="D24" s="69">
-        <v>2.1013671836292</v>
+        <v>2.10085932809198</v>
       </c>
       <c r="E24" s="66">
         <v>78978.0000000001</v>
@@ -2634,13 +2634,13 @@
       </c>
       <c r="J24" s="42"/>
       <c r="K24" s="59">
-        <v>893.40563536215</v>
+        <v>893.290315744077</v>
       </c>
       <c r="L24" s="28">
         <v>882.643167352875</v>
       </c>
       <c r="M24" s="28">
-        <v>10.762468009274926</v>
+        <v>10.647148391201995</v>
       </c>
     </row>
     <row r="25">
@@ -2651,10 +2651,10 @@
         <v>20247</v>
       </c>
       <c r="C25" s="69">
-        <v>6.7386682783808896</v>
+        <v>6.73865816576628</v>
       </c>
       <c r="D25" s="69">
-        <v>2.3032633065313</v>
+        <v>2.30299948278361</v>
       </c>
       <c r="E25" s="66">
         <v>21066</v>
@@ -2670,13 +2670,13 @@
       </c>
       <c r="J25" s="42"/>
       <c r="K25" s="57">
-        <v>4.04187212046312</v>
+        <v>4.0418734594479</v>
       </c>
       <c r="L25" s="15">
         <v>4.1300175175713205</v>
       </c>
       <c r="M25" s="15">
-        <v>-0.088145397108200463</v>
+        <v>-0.088144058123420521</v>
       </c>
     </row>
     <row r="26" ht="16.5">
@@ -2706,13 +2706,13 @@
       </c>
       <c r="J26" s="42"/>
       <c r="K26" s="60">
-        <v>5077.51843313498</v>
+        <v>5077.52012587068</v>
       </c>
       <c r="L26" s="28">
         <v>5127.80457020695</v>
       </c>
       <c r="M26" s="28">
-        <v>-50.286137071970188</v>
+        <v>-50.2844443362701</v>
       </c>
     </row>
     <row r="27">
@@ -2742,13 +2742,13 @@
       </c>
       <c r="J27" s="42"/>
       <c r="K27" s="60">
-        <v>1061.5908880798</v>
+        <v>1061.59222660354</v>
       </c>
       <c r="L27" s="28">
         <v>1135.30686804828</v>
       </c>
       <c r="M27" s="28">
-        <v>-73.715979968480042</v>
+        <v>-73.714641444739982</v>
       </c>
     </row>
     <row r="28">
@@ -2778,13 +2778,13 @@
       </c>
       <c r="J28" s="42"/>
       <c r="K28" s="57">
-        <v>4.66058161642341</v>
+        <v>4.6530703201223007</v>
       </c>
       <c r="L28" s="15">
         <v>4.98900565810162</v>
       </c>
       <c r="M28" s="15">
-        <v>-0.32842404167821027</v>
+        <v>-0.33593533797931929</v>
       </c>
     </row>
     <row r="29">
@@ -2904,7 +2904,7 @@
         <v>400</v>
       </c>
       <c r="D35" s="19">
-        <v>-0.120621484794021</v>
+        <v>-0.120621783476998</v>
       </c>
       <c r="E35" s="19">
         <v>-0.2</v>
@@ -2926,7 +2926,7 @@
         <v>300</v>
       </c>
       <c r="D36" s="19">
-        <v>-0.0855574159924635</v>
+        <v>-0.0855576364597602</v>
       </c>
       <c r="E36" s="19">
         <v>-0.15</v>
@@ -2948,7 +2948,7 @@
         <v>200</v>
       </c>
       <c r="D37" s="19">
-        <v>-0.0565135551551055</v>
+        <v>-0.0565137018076881</v>
       </c>
       <c r="E37" s="19">
         <v>-0.1</v>
@@ -2978,7 +2978,7 @@
         <v>100</v>
       </c>
       <c r="D38" s="19">
-        <v>-0.028798110098826</v>
+        <v>-0.028798182608081</v>
       </c>
       <c r="E38" s="19">
         <v>-0.07</v>
@@ -3034,7 +3034,7 @@
         <v>-100</v>
       </c>
       <c r="D40" s="19">
-        <v>-0.00907000794882184</v>
+        <v>-0.00906991931924712</v>
       </c>
       <c r="E40" s="19">
         <v>-0.07</v>
@@ -3064,7 +3064,7 @@
         <v>-200</v>
       </c>
       <c r="D41" s="19">
-        <v>-0.00907632417808997</v>
+        <v>-0.00907623547079632</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="46"/>
@@ -3114,7 +3114,7 @@
         <v>68</v>
       </c>
       <c r="D43" s="19">
-        <v>-0.120913018663639</v>
+        <v>-0.120913049036131</v>
       </c>
       <c r="E43" s="19">
         <v>-0.15</v>
@@ -3172,7 +3172,7 @@
         <v>400</v>
       </c>
       <c r="D45" s="19">
-        <v>-0.0856212166499126</v>
+        <v>-0.0856223470935765</v>
       </c>
       <c r="E45" s="19">
         <v>-0.2</v>
@@ -3202,7 +3202,7 @@
         <v>300</v>
       </c>
       <c r="D46" s="19">
-        <v>-0.0536373269472537</v>
+        <v>-0.0536381367748427</v>
       </c>
       <c r="E46" s="19">
         <v>-0.15</v>
@@ -3232,7 +3232,7 @@
         <v>200</v>
       </c>
       <c r="D47" s="19">
-        <v>-0.0358796199243656</v>
+        <v>-0.0358801538889541</v>
       </c>
       <c r="E47" s="19">
         <v>-0.1</v>
@@ -3262,7 +3262,7 @@
         <v>100</v>
       </c>
       <c r="D48" s="19">
-        <v>-0.0165121475370589</v>
+        <v>-0.0165124009427907</v>
       </c>
       <c r="E48" s="19">
         <v>-0.07</v>
@@ -3318,7 +3318,7 @@
         <v>-100</v>
       </c>
       <c r="D50" s="19">
-        <v>-0.0326278245358121</v>
+        <v>-0.032627495049909</v>
       </c>
       <c r="E50" s="19">
         <v>-0.07</v>
@@ -3348,7 +3348,7 @@
         <v>-200</v>
       </c>
       <c r="D51" s="19">
-        <v>-0.0330922795369719</v>
+        <v>-0.0330919432659337</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="46"/>
@@ -3390,7 +3390,7 @@
         <v>68</v>
       </c>
       <c r="D53" s="19">
-        <v>-0.119289964284329</v>
+        <v>-0.119290040832566</v>
       </c>
       <c r="E53" s="19">
         <v>-0.15</v>
@@ -3439,7 +3439,7 @@
         <v>400</v>
       </c>
       <c r="D55" s="19">
-        <v>-0.287846989670398</v>
+        <v>-0.287580379638994</v>
       </c>
       <c r="E55" s="19">
         <v>-0.35</v>
@@ -3461,7 +3461,7 @@
         <v>300</v>
       </c>
       <c r="D56" s="19">
-        <v>-0.177195598117769</v>
+        <v>-0.177075207340705</v>
       </c>
       <c r="E56" s="19">
         <v>-0.25</v>
@@ -3483,7 +3483,7 @@
         <v>200</v>
       </c>
       <c r="D57" s="19">
-        <v>-0.118357510142226</v>
+        <v>-0.118329828708049</v>
       </c>
       <c r="E57" s="19">
         <v>-0.15</v>
@@ -3513,7 +3513,7 @@
         <v>100</v>
       </c>
       <c r="D58" s="19">
-        <v>-0.053479315583676</v>
+        <v>-0.0534528164576611</v>
       </c>
       <c r="E58" s="19">
         <v>-0.1</v>
@@ -3569,7 +3569,7 @@
         <v>-100</v>
       </c>
       <c r="D60" s="19">
-        <v>-0.00591112655289965</v>
+        <v>-0.00596136691966615</v>
       </c>
       <c r="E60" s="19">
         <v>-0.1</v>
@@ -3599,7 +3599,7 @@
         <v>-200</v>
       </c>
       <c r="D61" s="19">
-        <v>-0.00750446000073667</v>
+        <v>-0.00755198073235253</v>
       </c>
       <c r="E61" s="19"/>
       <c r="F61" s="46"/>
@@ -3623,7 +3623,7 @@
         <v>68</v>
       </c>
       <c r="D63" s="19">
-        <v>-0.125868739284039</v>
+        <v>-0.125761967830809</v>
       </c>
       <c r="E63" s="19">
         <v>-0.25</v>
@@ -3669,20 +3669,20 @@
         <v>19784</v>
       </c>
       <c r="F66" s="16">
-        <v>19872.9685297693</v>
+        <v>19872.9685311286</v>
       </c>
       <c r="G66" s="39">
-        <v>19964.6858192832</v>
+        <v>19964.6858255271</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="16">
-        <v>20060.2118118917</v>
+        <v>20060.2118286137</v>
       </c>
       <c r="J66" s="16">
-        <v>20151.2910521051</v>
+        <v>20151.2910880209</v>
       </c>
       <c r="K66" s="16">
-        <v>20239.6719759813</v>
+        <v>20239.6720449593</v>
       </c>
     </row>
     <row r="67">
@@ -3692,23 +3692,23 @@
       <c r="C67" s="41"/>
       <c r="D67" s="41"/>
       <c r="E67" s="16">
-        <v>10.0528591567438</v>
+        <v>10.0530169127119</v>
       </c>
       <c r="F67" s="16">
-        <v>9.6572653301156</v>
+        <v>9.65743447037313</v>
       </c>
       <c r="G67" s="39">
-        <v>2132.80205721988</v>
+        <v>2132.80222576427</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="16">
-        <v>11.012676409953</v>
+        <v>11.0128392317677</v>
       </c>
       <c r="J67" s="16">
-        <v>11.5561045708808</v>
+        <v>11.5562101296838</v>
       </c>
       <c r="K67" s="16">
-        <v>11.2593380859537</v>
+        <v>11.2593837965683</v>
       </c>
     </row>
     <row r="68">
@@ -3718,23 +3718,23 @@
       <c r="C68" s="41"/>
       <c r="D68" s="41"/>
       <c r="E68" s="16">
-        <v>1720.081882973</v>
+        <v>1720.08096536734</v>
       </c>
       <c r="F68" s="16">
-        <v>1889.8984633874</v>
+        <v>1889.89700339741</v>
       </c>
       <c r="G68" s="39">
-        <v>1953.69091077778</v>
+        <v>1953.6886099028</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="16">
-        <v>1993.24604171006</v>
+        <v>1993.24245049534</v>
       </c>
       <c r="J68" s="16">
-        <v>1921.02283327363</v>
+        <v>1921.01693248222</v>
       </c>
       <c r="K68" s="16">
-        <v>1855.37644612235</v>
+        <v>1855.36655021087</v>
       </c>
     </row>
     <row r="69">
@@ -3796,23 +3796,23 @@
       <c r="C71" s="41"/>
       <c r="D71" s="41"/>
       <c r="E71" s="16">
-        <v>88.9685297694476</v>
+        <v>88.9685311286834</v>
       </c>
       <c r="F71" s="16">
-        <v>91.7172895137747</v>
+        <v>91.7172943983943</v>
       </c>
       <c r="G71" s="39">
-        <v>95.5259926066936</v>
+        <v>95.5260030847463</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="16">
-        <v>91.0792402188784</v>
+        <v>91.0792594106011</v>
       </c>
       <c r="J71" s="16">
-        <v>88.3809238736223</v>
+        <v>88.3809569378445</v>
       </c>
       <c r="K71" s="16">
-        <v>90.350593421548</v>
+        <v>90.3506492330049</v>
       </c>
     </row>
     <row r="72">
@@ -3848,23 +3848,23 @@
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
       <c r="E73" s="16">
-        <v>26034.9942850835</v>
+        <v>26034.9935265932</v>
       </c>
       <c r="F73" s="16">
-        <v>26290.4041009815</v>
+        <v>26290.4028163757</v>
       </c>
       <c r="G73" s="39">
-        <v>28569.9450856294</v>
+        <v>28569.9429700207</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="16">
-        <v>28803.702488211</v>
+        <v>28803.6990957319</v>
       </c>
       <c r="J73" s="16">
-        <v>28823.0249139661</v>
+        <v>28823.0191877135</v>
       </c>
       <c r="K73" s="16">
-        <v>28851.5222068644</v>
+        <v>28851.512481453</v>
       </c>
     </row>
     <row r="74">
@@ -3874,23 +3874,23 @@
       <c r="C74" s="41"/>
       <c r="D74" s="41"/>
       <c r="E74" s="16">
-        <v>10.085527017885</v>
+        <v>10.085750240764</v>
       </c>
       <c r="F74" s="16">
-        <v>9.69743872728027</v>
+        <v>9.69767965156605</v>
       </c>
       <c r="G74" s="39">
-        <v>2132.8507475168</v>
+        <v>2132.85098953864</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="16">
-        <v>11.0718679092911</v>
+        <v>11.0721004809924</v>
       </c>
       <c r="J74" s="16">
-        <v>11.6275008796461</v>
+        <v>11.6276535153581</v>
       </c>
       <c r="K74" s="16">
-        <v>11.3554663084058</v>
+        <v>11.3555312732217</v>
       </c>
     </row>
     <row r="75">
@@ -3900,23 +3900,23 @@
       <c r="C75" s="41"/>
       <c r="D75" s="41"/>
       <c r="E75" s="16">
-        <v>1737.97004370131</v>
+        <v>1737.96875357161</v>
       </c>
       <c r="F75" s="16">
-        <v>1908.41711843232</v>
+        <v>1908.41505378358</v>
       </c>
       <c r="G75" s="39">
-        <v>1972.9882003199</v>
+        <v>1972.98493350546</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="16">
-        <v>2013.54555374999</v>
+        <v>2013.54044225685</v>
       </c>
       <c r="J75" s="16">
-        <v>1942.81233226649</v>
+        <v>1942.80393902548</v>
       </c>
       <c r="K75" s="16">
-        <v>1879.47307776271</v>
+        <v>1879.45901732593</v>
       </c>
     </row>
     <row r="76">
@@ -3978,23 +3978,23 @@
       <c r="C78" s="41"/>
       <c r="D78" s="41"/>
       <c r="E78" s="16">
-        <v>-17.920828589425</v>
+        <v>-17.9205215323395</v>
       </c>
       <c r="F78" s="16">
-        <v>-18.5588284421448</v>
+        <v>-18.5582955674027</v>
       </c>
       <c r="G78" s="39">
-        <v>-19.3459798408817</v>
+        <v>-19.345087378855</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="16">
-        <v>-20.3587035358874</v>
+        <v>-20.3572530094532</v>
       </c>
       <c r="J78" s="16">
-        <v>-21.8608953042227</v>
+        <v>-21.8584499295312</v>
       </c>
       <c r="K78" s="16">
-        <v>-24.1927598628901</v>
+        <v>-24.1886145906353</v>
       </c>
     </row>
     <row r="79">
@@ -4030,23 +4030,23 @@
       <c r="C80" s="43"/>
       <c r="D80" s="43"/>
       <c r="E80" s="16">
-        <v>6162.02575531425</v>
+        <v>6162.02499546454</v>
       </c>
       <c r="F80" s="16">
-        <v>6325.71828169834</v>
+        <v>6325.71699084861</v>
       </c>
       <c r="G80" s="39">
-        <v>8509.73327373764</v>
+        <v>8509.73114140706</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="16">
-        <v>8652.41143610597</v>
+        <v>8652.40800771097</v>
       </c>
       <c r="J80" s="16">
-        <v>8583.3529379848</v>
+        <v>8583.3471427542</v>
       </c>
       <c r="K80" s="16">
-        <v>8521.49963746134</v>
+        <v>8521.48978726163</v>
       </c>
     </row>
     <row r="81">
@@ -4056,23 +4056,23 @@
       <c r="C81" s="43"/>
       <c r="D81" s="43"/>
       <c r="E81" s="30">
-        <v>4.22507066975993</v>
+        <v>4.22507106766944</v>
       </c>
       <c r="F81" s="30">
-        <v>4.15611365068933</v>
+        <v>4.15611429572488</v>
       </c>
       <c r="G81" s="40">
-        <v>3.3573255666897</v>
+        <v>3.35732615934289</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="30">
-        <v>3.32897975332229</v>
+        <v>3.32898068029873</v>
       </c>
       <c r="J81" s="30">
-        <v>3.3580146502438</v>
+        <v>3.35801625034414</v>
       </c>
       <c r="K81" s="30">
-        <v>3.38573296184046</v>
+        <v>3.38573573421184</v>
       </c>
     </row>
     <row r="83" ht="28.5" customHeight="1">
@@ -4115,20 +4115,20 @@
         <v>5.97752808988503</v>
       </c>
       <c r="F84" s="12">
-        <v>0.87908467568293536</v>
+        <v>0.87874777679429106</v>
       </c>
       <c r="G84" s="37">
-        <v>1.32236415396834</v>
+        <v>1.18747985102722</v>
       </c>
       <c r="H84" s="37"/>
       <c r="I84" s="12">
-        <v>29.622194761515551</v>
+        <v>29.471788714785596</v>
       </c>
       <c r="J84" s="12">
-        <v>0.31357279347037</v>
+        <v>0.316375297634721</v>
       </c>
       <c r="K84" s="12">
-        <v>0.595311062620054</v>
+        <v>0.598784140008844</v>
       </c>
     </row>
     <row r="85">
@@ -4143,20 +4143,20 @@
         <v>7.1025020178</v>
       </c>
       <c r="F85" s="12">
-        <v>1.895451644438003</v>
+        <v>1.895137029467566</v>
       </c>
       <c r="G85" s="37">
         <v>2.12303670010377</v>
       </c>
       <c r="H85" s="37"/>
       <c r="I85" s="12">
-        <v>52.703667673118851</v>
+        <v>52.703663740700257</v>
       </c>
       <c r="J85" s="12">
-        <v>-0.439599937817104</v>
+        <v>-0.439652514091958</v>
       </c>
       <c r="K85" s="12">
-        <v>6.62697760480766</v>
+        <v>6.62731270373703</v>
       </c>
     </row>
     <row r="86">
@@ -4171,20 +4171,20 @@
         <v>5.78382032598604</v>
       </c>
       <c r="F86" s="12">
-        <v>0.76303127695773554</v>
+        <v>0.76266509990543074</v>
       </c>
       <c r="G86" s="37">
-        <v>1.20970787175931</v>
+        <v>1.03901320006961</v>
       </c>
       <c r="H86" s="37"/>
       <c r="I86" s="12">
-        <v>27.297167453102979</v>
+        <v>26.745936836069674</v>
       </c>
       <c r="J86" s="12">
-        <v>0.848547909656305</v>
+        <v>0.851903301791103</v>
       </c>
       <c r="K86" s="12">
-        <v>-0.0916486357531151</v>
+        <v>-0.0871555402890045</v>
       </c>
     </row>
     <row r="87">

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_DASHBOARD.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_DASHBOARD.xlsx
@@ -43,7 +43,7 @@
     <t>As of date: Dec, 2020</t>
   </si>
   <si>
-    <t>Printed on: 2021-03-14 05:12</t>
+    <t>Printed on: 2021-04-08 05:25</t>
   </si>
   <si>
     <t>Previous Cycle: Sep, 2020</t>
@@ -2474,7 +2474,7 @@
         <v>4.78960915337298</v>
       </c>
       <c r="D20" s="65">
-        <v>1.83965391735106</v>
+        <v>1.83965370511795</v>
       </c>
       <c r="E20" s="61">
         <v>125266</v>
@@ -2490,13 +2490,13 @@
       </c>
       <c r="J20" s="42"/>
       <c r="K20" s="57">
-        <v>16.5989220824786</v>
+        <v>16.5989220679024</v>
       </c>
       <c r="L20" s="15">
         <v>16.7270214542716</v>
       </c>
       <c r="M20" s="15">
-        <v>-0.1280993717929988</v>
+        <v>-0.12809938636920037</v>
       </c>
     </row>
     <row r="21">
@@ -2526,13 +2526,13 @@
       </c>
       <c r="J21" s="42"/>
       <c r="K21" s="58">
-        <v>4.40731057059092</v>
+        <v>4.40730929469913</v>
       </c>
       <c r="L21" s="15">
         <v>3.79544339642409</v>
       </c>
       <c r="M21" s="15">
-        <v>0.61186717416683</v>
+        <v>0.61186589827503957</v>
       </c>
     </row>
     <row r="22">
@@ -2562,13 +2562,13 @@
       </c>
       <c r="J22" s="42"/>
       <c r="K22" s="57">
-        <v>-28.7580379638994</v>
+        <v>-28.758037980893803</v>
       </c>
       <c r="L22" s="15">
         <v>-26.210077252562204</v>
       </c>
       <c r="M22" s="15">
-        <v>-2.5479607113371969</v>
+        <v>-2.5479607283315993</v>
       </c>
     </row>
     <row r="23">
@@ -2582,7 +2582,7 @@
         <v>5.97752808988503</v>
       </c>
       <c r="D23" s="69">
-        <v>2.14215630896882</v>
+        <v>2.14215604506349</v>
       </c>
       <c r="E23" s="66">
         <v>100044</v>
@@ -2597,14 +2597,14 @@
         <v>35</v>
       </c>
       <c r="J23" s="42"/>
-      <c r="K23" s="57">
-        <v>-12.0621783476998</v>
+      <c r="K23" s="58">
+        <v>-11.1513577699778</v>
       </c>
       <c r="L23" s="15">
         <v>-11.457873023906</v>
       </c>
       <c r="M23" s="15">
-        <v>-0.60430532379380075</v>
+        <v>0.30651525392820034</v>
       </c>
     </row>
     <row r="24">
@@ -2618,7 +2618,7 @@
         <v>5.78382032598604</v>
       </c>
       <c r="D24" s="69">
-        <v>2.10085932809198</v>
+        <v>2.10085899641694</v>
       </c>
       <c r="E24" s="66">
         <v>78978.0000000001</v>
@@ -2634,13 +2634,13 @@
       </c>
       <c r="J24" s="42"/>
       <c r="K24" s="59">
-        <v>893.290315744077</v>
+        <v>893.290315700129</v>
       </c>
       <c r="L24" s="28">
         <v>882.643167352875</v>
       </c>
       <c r="M24" s="28">
-        <v>10.647148391201995</v>
+        <v>10.64714834725396</v>
       </c>
     </row>
     <row r="25">
@@ -2670,13 +2670,13 @@
       </c>
       <c r="J25" s="42"/>
       <c r="K25" s="57">
-        <v>4.0418734594479</v>
+        <v>4.04212860257527</v>
       </c>
       <c r="L25" s="15">
         <v>4.1300175175713205</v>
       </c>
       <c r="M25" s="15">
-        <v>-0.088144058123420521</v>
+        <v>-0.0878889149960509</v>
       </c>
     </row>
     <row r="26" ht="16.5">
@@ -2706,13 +2706,13 @@
       </c>
       <c r="J26" s="42"/>
       <c r="K26" s="60">
-        <v>5077.52012587068</v>
+        <v>5077.84627237801</v>
       </c>
       <c r="L26" s="28">
         <v>5127.80457020695</v>
       </c>
       <c r="M26" s="28">
-        <v>-50.2844443362701</v>
+        <v>-49.958297828939976</v>
       </c>
     </row>
     <row r="27">
@@ -2742,13 +2742,13 @@
       </c>
       <c r="J27" s="42"/>
       <c r="K27" s="60">
-        <v>1061.59222660354</v>
+        <v>1061.85012560277</v>
       </c>
       <c r="L27" s="28">
         <v>1135.30686804828</v>
       </c>
       <c r="M27" s="28">
-        <v>-73.714641444739982</v>
+        <v>-73.456742445509917</v>
       </c>
     </row>
     <row r="28">
@@ -2778,13 +2778,13 @@
       </c>
       <c r="J28" s="42"/>
       <c r="K28" s="57">
-        <v>4.6530703201223007</v>
+        <v>4.65420072344593</v>
       </c>
       <c r="L28" s="15">
         <v>4.98900565810162</v>
       </c>
       <c r="M28" s="15">
-        <v>-0.33593533797931929</v>
+        <v>-0.33480493465568983</v>
       </c>
     </row>
     <row r="29">
@@ -2904,7 +2904,7 @@
         <v>400</v>
       </c>
       <c r="D35" s="19">
-        <v>-0.120621783476998</v>
+        <v>-0.111513577699778</v>
       </c>
       <c r="E35" s="19">
         <v>-0.2</v>
@@ -2926,7 +2926,7 @@
         <v>300</v>
       </c>
       <c r="D36" s="19">
-        <v>-0.0855576364597602</v>
+        <v>-0.0787415623880143</v>
       </c>
       <c r="E36" s="19">
         <v>-0.15</v>
@@ -2948,7 +2948,7 @@
         <v>200</v>
       </c>
       <c r="D37" s="19">
-        <v>-0.0565137018076881</v>
+        <v>-0.0519795496751339</v>
       </c>
       <c r="E37" s="19">
         <v>-0.1</v>
@@ -2978,7 +2978,7 @@
         <v>100</v>
       </c>
       <c r="D38" s="19">
-        <v>-0.028798182608081</v>
+        <v>-0.0265360139839265</v>
       </c>
       <c r="E38" s="19">
         <v>-0.07</v>
@@ -3034,7 +3034,7 @@
         <v>-100</v>
       </c>
       <c r="D40" s="19">
-        <v>-0.00906991931924712</v>
+        <v>-0.00931402937625196</v>
       </c>
       <c r="E40" s="19">
         <v>-0.07</v>
@@ -3064,7 +3064,7 @@
         <v>-200</v>
       </c>
       <c r="D41" s="19">
-        <v>-0.00907623547079632</v>
+        <v>-0.009320345122119</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="46"/>
@@ -3114,7 +3114,7 @@
         <v>68</v>
       </c>
       <c r="D43" s="19">
-        <v>-0.120913049036131</v>
+        <v>-0.114094822424981</v>
       </c>
       <c r="E43" s="19">
         <v>-0.15</v>
@@ -3172,7 +3172,7 @@
         <v>400</v>
       </c>
       <c r="D45" s="19">
-        <v>-0.0856223470935765</v>
+        <v>-0.0807779943980097</v>
       </c>
       <c r="E45" s="19">
         <v>-0.2</v>
@@ -3202,7 +3202,7 @@
         <v>300</v>
       </c>
       <c r="D46" s="19">
-        <v>-0.0536381367748427</v>
+        <v>-0.0500355352945526</v>
       </c>
       <c r="E46" s="19">
         <v>-0.15</v>
@@ -3232,7 +3232,7 @@
         <v>200</v>
       </c>
       <c r="D47" s="19">
-        <v>-0.0358801538889541</v>
+        <v>-0.0334985084257868</v>
       </c>
       <c r="E47" s="19">
         <v>-0.1</v>
@@ -3262,7 +3262,7 @@
         <v>100</v>
       </c>
       <c r="D48" s="19">
-        <v>-0.0165124009427907</v>
+        <v>-0.015331644923722</v>
       </c>
       <c r="E48" s="19">
         <v>-0.07</v>
@@ -3318,7 +3318,7 @@
         <v>-100</v>
       </c>
       <c r="D50" s="19">
-        <v>-0.032627495049909</v>
+        <v>-0.0327642319019719</v>
       </c>
       <c r="E50" s="19">
         <v>-0.07</v>
@@ -3348,7 +3348,7 @@
         <v>-200</v>
       </c>
       <c r="D51" s="19">
-        <v>-0.0330919432659337</v>
+        <v>-0.0332286593735911</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="46"/>
@@ -3390,7 +3390,7 @@
         <v>68</v>
       </c>
       <c r="D53" s="19">
-        <v>-0.119290040832566</v>
+        <v>-0.115786417769026</v>
       </c>
       <c r="E53" s="19">
         <v>-0.15</v>
@@ -3439,7 +3439,7 @@
         <v>400</v>
       </c>
       <c r="D55" s="19">
-        <v>-0.287580379638994</v>
+        <v>-0.287580379808938</v>
       </c>
       <c r="E55" s="19">
         <v>-0.35</v>
@@ -3461,7 +3461,7 @@
         <v>300</v>
       </c>
       <c r="D56" s="19">
-        <v>-0.177075207340705</v>
+        <v>-0.177075207426068</v>
       </c>
       <c r="E56" s="19">
         <v>-0.25</v>
@@ -3483,7 +3483,7 @@
         <v>200</v>
       </c>
       <c r="D57" s="19">
-        <v>-0.118329828708049</v>
+        <v>-0.118329828764286</v>
       </c>
       <c r="E57" s="19">
         <v>-0.15</v>
@@ -3513,7 +3513,7 @@
         <v>100</v>
       </c>
       <c r="D58" s="19">
-        <v>-0.0534528164576611</v>
+        <v>-0.0534528164792768</v>
       </c>
       <c r="E58" s="19">
         <v>-0.1</v>
@@ -3569,7 +3569,7 @@
         <v>-100</v>
       </c>
       <c r="D60" s="19">
-        <v>-0.00596136691966615</v>
+        <v>-0.00596136590581919</v>
       </c>
       <c r="E60" s="19">
         <v>-0.1</v>
@@ -3599,7 +3599,7 @@
         <v>-200</v>
       </c>
       <c r="D61" s="19">
-        <v>-0.00755198073235253</v>
+        <v>-0.00755197972018036</v>
       </c>
       <c r="E61" s="19"/>
       <c r="F61" s="46"/>
@@ -3623,7 +3623,7 @@
         <v>68</v>
       </c>
       <c r="D63" s="19">
-        <v>-0.125761967830809</v>
+        <v>-0.12576195048527</v>
       </c>
       <c r="E63" s="19">
         <v>-0.25</v>
@@ -3672,17 +3672,17 @@
         <v>19872.9685311286</v>
       </c>
       <c r="G66" s="39">
-        <v>19964.6858255271</v>
+        <v>19964.8200029806</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="16">
-        <v>20060.2118286137</v>
+        <v>20060.3527840009</v>
       </c>
       <c r="J66" s="16">
-        <v>20151.2910880209</v>
+        <v>20151.4334238679</v>
       </c>
       <c r="K66" s="16">
-        <v>20239.6720449593</v>
+        <v>20239.8160516667</v>
       </c>
     </row>
     <row r="67">
@@ -3721,20 +3721,20 @@
         <v>1720.08096536734</v>
       </c>
       <c r="F68" s="16">
-        <v>1889.89700339741</v>
+        <v>1889.89699946961</v>
       </c>
       <c r="G68" s="39">
-        <v>1953.6886099028</v>
+        <v>1953.68859743531</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="16">
-        <v>1993.24245049534</v>
+        <v>1993.24243423567</v>
       </c>
       <c r="J68" s="16">
-        <v>1921.01693248222</v>
+        <v>1921.01691713724</v>
       </c>
       <c r="K68" s="16">
-        <v>1855.36655021087</v>
+        <v>1855.36654975197</v>
       </c>
     </row>
     <row r="69">
@@ -3799,20 +3799,20 @@
         <v>88.9685311286834</v>
       </c>
       <c r="F71" s="16">
-        <v>91.7172943983943</v>
+        <v>91.8514718519947</v>
       </c>
       <c r="G71" s="39">
-        <v>95.5260030847463</v>
+        <v>95.532781018441</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="16">
-        <v>91.0792594106011</v>
+        <v>91.0806398702624</v>
       </c>
       <c r="J71" s="16">
-        <v>88.3809569378445</v>
+        <v>88.3826277984946</v>
       </c>
       <c r="K71" s="16">
-        <v>90.3506492330049</v>
+        <v>90.3789582604447</v>
       </c>
     </row>
     <row r="72">
@@ -3851,20 +3851,20 @@
         <v>26034.9935265932</v>
       </c>
       <c r="F73" s="16">
-        <v>26290.4028163757</v>
+        <v>26290.5369899015</v>
       </c>
       <c r="G73" s="39">
-        <v>28569.9429700207</v>
+        <v>28570.0839129404</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="16">
-        <v>28803.6990957319</v>
+        <v>28803.8414153191</v>
       </c>
       <c r="J73" s="16">
-        <v>28823.0191877135</v>
+        <v>28823.1631790762</v>
       </c>
       <c r="K73" s="16">
-        <v>28851.512481453</v>
+        <v>28851.6847967289</v>
       </c>
     </row>
     <row r="74">
@@ -3903,20 +3903,20 @@
         <v>1737.96875357161</v>
       </c>
       <c r="F75" s="16">
-        <v>1908.41505378358</v>
+        <v>1908.41504985585</v>
       </c>
       <c r="G75" s="39">
-        <v>1972.98493350546</v>
+        <v>1972.98492103792</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="16">
-        <v>2013.54044225685</v>
+        <v>2013.54042599703</v>
       </c>
       <c r="J75" s="16">
-        <v>1942.80393902548</v>
+        <v>1942.80392368061</v>
       </c>
       <c r="K75" s="16">
-        <v>1879.45901732593</v>
+        <v>1879.4590168671</v>
       </c>
     </row>
     <row r="76">
@@ -3984,17 +3984,17 @@
         <v>-18.5582955674027</v>
       </c>
       <c r="G78" s="39">
-        <v>-19.345087378855</v>
+        <v>-19.345087378806</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="16">
-        <v>-20.3572530094532</v>
+        <v>-20.3572530094614</v>
       </c>
       <c r="J78" s="16">
-        <v>-21.8584499295312</v>
+        <v>-21.8584499294</v>
       </c>
       <c r="K78" s="16">
-        <v>-24.1886145906353</v>
+        <v>-24.188614590386</v>
       </c>
     </row>
     <row r="79">
@@ -4033,20 +4033,20 @@
         <v>6162.02499546454</v>
       </c>
       <c r="F80" s="16">
-        <v>6325.71699084861</v>
+        <v>6325.71698692088</v>
       </c>
       <c r="G80" s="39">
-        <v>8509.73114140706</v>
+        <v>8509.73112893957</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="16">
-        <v>8652.40800771097</v>
+        <v>8652.40799145114</v>
       </c>
       <c r="J80" s="16">
-        <v>8583.3471427542</v>
+        <v>8583.34712740946</v>
       </c>
       <c r="K80" s="16">
-        <v>8521.48978726163</v>
+        <v>8521.48978680305</v>
       </c>
     </row>
     <row r="81">
@@ -4059,20 +4059,20 @@
         <v>4.22507106766944</v>
       </c>
       <c r="F81" s="30">
-        <v>4.15611429572488</v>
+        <v>4.15613550910673</v>
       </c>
       <c r="G81" s="40">
-        <v>3.35732615934289</v>
+        <v>3.35734272682017</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="30">
-        <v>3.32898068029873</v>
+        <v>3.32899713510715</v>
       </c>
       <c r="J81" s="30">
-        <v>3.35801625034414</v>
+        <v>3.35803303201315</v>
       </c>
       <c r="K81" s="30">
-        <v>3.38573573421184</v>
+        <v>3.38575595565585</v>
       </c>
     </row>
     <row r="83" ht="28.5" customHeight="1">
@@ -4115,7 +4115,7 @@
         <v>5.97752808988503</v>
       </c>
       <c r="F84" s="12">
-        <v>0.87874777679429106</v>
+        <v>0.878747776750398</v>
       </c>
       <c r="G84" s="37">
         <v>1.18747985102722</v>
@@ -4125,10 +4125,10 @@
         <v>29.471788714785596</v>
       </c>
       <c r="J84" s="12">
-        <v>0.316375297634721</v>
+        <v>0.316375298063345</v>
       </c>
       <c r="K84" s="12">
-        <v>0.598784140008844</v>
+        <v>0.598784138327088</v>
       </c>
     </row>
     <row r="85">
@@ -4171,7 +4171,7 @@
         <v>5.78382032598604</v>
       </c>
       <c r="F86" s="12">
-        <v>0.76266509990543074</v>
+        <v>0.762665099850412</v>
       </c>
       <c r="G86" s="37">
         <v>1.03901320006961</v>
@@ -4181,10 +4181,10 @@
         <v>26.745936836069674</v>
       </c>
       <c r="J86" s="12">
-        <v>0.851903301791103</v>
+        <v>0.851903302476271</v>
       </c>
       <c r="K86" s="12">
-        <v>-0.0871555402890045</v>
+        <v>-0.0871555425887125</v>
       </c>
     </row>
     <row r="87">
